--- a/画面設計/【画面設計】12_ユーザ管理(カロリー).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理(カロリー).xlsx
@@ -304,7 +304,8 @@
     <t>登録する①</t>
   </si>
   <si>
-    <t>上記の情報で、ユーザカロリー、体重履歴へ新規登録する。</t>
+    <t>上記の情報で、ユーザカロリー、体重履歴へ新規登録する。
+（既に体重の方で登録されていた場合は更新する）</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
